--- a/data/Airports.xlsx
+++ b/data/Airports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krzysiek\Documents\GitHub\flight_db\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A9C859-E51F-43F5-96C8-843598882A98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6055AB76-9CEA-4FBE-832B-C79E36353FF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2D641D20-2ABD-40C9-9F29-9BF9A7988FB8}"/>
   </bookViews>
@@ -204,9 +204,6 @@
     <t>Bari</t>
   </si>
   <si>
-    <t>Aeroporto Internazionale di Roma–Ciampino G. B. Pastine</t>
-  </si>
-  <si>
     <t>Rome</t>
   </si>
   <si>
@@ -351,9 +348,6 @@
     <t>JMK</t>
   </si>
   <si>
-    <t>Αεροδρόμιο Χανίων «Ιωάννης Δασκαλογιάννης»</t>
-  </si>
-  <si>
     <t>Chania</t>
   </si>
   <si>
@@ -712,6 +706,12 @@
   </si>
   <si>
     <t>RKV</t>
+  </si>
+  <si>
+    <t>Αεροδρόμιο Χανίων Ιωάννης Δασκαλογιάννης</t>
+  </si>
+  <si>
+    <t>Aeroporto Internazionale di Roma Ciampino G. B. Pastine</t>
   </si>
 </sst>
 </file>
@@ -1078,8 +1078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD80715E-5489-4D96-ABF9-FD4C8D3849C6}">
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1362,7 +1362,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>52</v>
@@ -1379,7 +1379,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>54</v>
@@ -1396,16 +1396,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>56</v>
+        <v>225</v>
       </c>
       <c r="D19" t="s">
         <v>50</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1413,16 +1413,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
         <v>50</v>
       </c>
       <c r="E20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1430,16 +1430,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
         <v>50</v>
       </c>
       <c r="E21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1447,16 +1447,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
         <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1464,16 +1464,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" t="s">
         <v>50</v>
       </c>
       <c r="E23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1481,16 +1481,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" t="s">
         <v>74</v>
-      </c>
-      <c r="E24" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1498,16 +1498,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" t="s">
         <v>77</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>78</v>
-      </c>
-      <c r="E25" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1515,16 +1515,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" t="s">
         <v>81</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>82</v>
-      </c>
-      <c r="E26" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1532,16 +1532,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" t="s">
         <v>85</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>86</v>
-      </c>
-      <c r="E27" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1549,16 +1549,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" t="s">
         <v>89</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>90</v>
-      </c>
-      <c r="E28" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1566,13 +1566,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" t="s">
         <v>93</v>
-      </c>
-      <c r="D29" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1580,16 +1580,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" t="s">
         <v>95</v>
-      </c>
-      <c r="D30" t="s">
-        <v>94</v>
-      </c>
-      <c r="E30" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1597,16 +1597,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" t="s">
         <v>100</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D31" t="s">
-        <v>94</v>
-      </c>
-      <c r="E31" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1614,16 +1614,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" t="s">
+        <v>93</v>
+      </c>
+      <c r="E32" t="s">
         <v>102</v>
-      </c>
-      <c r="D32" t="s">
-        <v>94</v>
-      </c>
-      <c r="E32" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1631,16 +1631,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>105</v>
+        <v>224</v>
       </c>
       <c r="D33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E33" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1648,16 +1648,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E34" t="s">
         <v>108</v>
-      </c>
-      <c r="D34" t="s">
-        <v>109</v>
-      </c>
-      <c r="E34" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1665,16 +1665,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D35" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E35" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1682,16 +1682,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D36" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36" t="s">
         <v>115</v>
-      </c>
-      <c r="D36" t="s">
-        <v>116</v>
-      </c>
-      <c r="E36" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1699,16 +1699,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" t="s">
+        <v>118</v>
+      </c>
+      <c r="E37" t="s">
         <v>119</v>
-      </c>
-      <c r="D37" t="s">
-        <v>120</v>
-      </c>
-      <c r="E37" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1716,16 +1716,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D38" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E38" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1733,16 +1733,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D39" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E39" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1750,16 +1750,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D40" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E40" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1767,16 +1767,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C41" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D41" t="s">
+        <v>127</v>
+      </c>
+      <c r="E41" t="s">
         <v>128</v>
-      </c>
-      <c r="D41" t="s">
-        <v>129</v>
-      </c>
-      <c r="E41" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1784,16 +1784,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D42" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E42" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1801,16 +1801,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D43" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E43" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1818,16 +1818,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D44" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E44" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1835,16 +1835,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D45" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E45" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1852,16 +1852,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C46" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D46" t="s">
+        <v>138</v>
+      </c>
+      <c r="E46" t="s">
         <v>139</v>
-      </c>
-      <c r="D46" t="s">
-        <v>140</v>
-      </c>
-      <c r="E46" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1869,16 +1869,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C47" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D47" t="s">
+        <v>141</v>
+      </c>
+      <c r="E47" t="s">
         <v>142</v>
-      </c>
-      <c r="D47" t="s">
-        <v>143</v>
-      </c>
-      <c r="E47" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1886,16 +1886,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D48" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E48" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1903,16 +1903,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D49" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E49" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1920,16 +1920,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C50" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D50" t="s">
+        <v>148</v>
+      </c>
+      <c r="E50" t="s">
         <v>149</v>
-      </c>
-      <c r="D50" t="s">
-        <v>150</v>
-      </c>
-      <c r="E50" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1937,16 +1937,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C51" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D51" t="s">
+        <v>151</v>
+      </c>
+      <c r="E51" t="s">
         <v>152</v>
-      </c>
-      <c r="D51" t="s">
-        <v>153</v>
-      </c>
-      <c r="E51" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1954,16 +1954,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D52" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E52" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1971,16 +1971,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C53" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D53" t="s">
+        <v>156</v>
+      </c>
+      <c r="E53" t="s">
         <v>157</v>
-      </c>
-      <c r="D53" t="s">
-        <v>158</v>
-      </c>
-      <c r="E53" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1988,16 +1988,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C54" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D54" t="s">
+        <v>159</v>
+      </c>
+      <c r="E54" t="s">
         <v>160</v>
-      </c>
-      <c r="D54" t="s">
-        <v>161</v>
-      </c>
-      <c r="E54" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2005,16 +2005,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C55" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D55" t="s">
+        <v>162</v>
+      </c>
+      <c r="E55" t="s">
         <v>163</v>
-      </c>
-      <c r="D55" t="s">
-        <v>164</v>
-      </c>
-      <c r="E55" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -2022,16 +2022,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D56" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E56" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2039,16 +2039,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D57" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E57" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -2056,16 +2056,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C58" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D58" t="s">
+        <v>170</v>
+      </c>
+      <c r="E58" t="s">
         <v>171</v>
-      </c>
-      <c r="D58" t="s">
-        <v>172</v>
-      </c>
-      <c r="E58" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2073,16 +2073,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C59" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D59" t="s">
+        <v>173</v>
+      </c>
+      <c r="E59" t="s">
         <v>174</v>
-      </c>
-      <c r="D59" t="s">
-        <v>175</v>
-      </c>
-      <c r="E59" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2090,16 +2090,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C60" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D60" t="s">
+        <v>176</v>
+      </c>
+      <c r="E60" t="s">
         <v>177</v>
-      </c>
-      <c r="D60" t="s">
-        <v>178</v>
-      </c>
-      <c r="E60" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2107,16 +2107,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D61" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E61" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2124,16 +2124,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D62" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E62" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2141,16 +2141,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D63" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E63" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2158,16 +2158,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D64" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E64" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2175,16 +2175,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D65" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E65" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2192,16 +2192,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D66" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E66" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2209,16 +2209,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D67" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E67" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2226,16 +2226,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D68" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E68" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2243,16 +2243,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C69" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D69" t="s">
+        <v>191</v>
+      </c>
+      <c r="E69" t="s">
         <v>192</v>
-      </c>
-      <c r="D69" t="s">
-        <v>193</v>
-      </c>
-      <c r="E69" t="s">
-        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/data/Airports.xlsx
+++ b/data/Airports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krzysiek\Documents\GitHub\flight_db\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6055AB76-9CEA-4FBE-832B-C79E36353FF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E8364D-D9E0-4339-B328-53316B7E5111}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2D641D20-2ABD-40C9-9F29-9BF9A7988FB8}"/>
   </bookViews>
@@ -1079,7 +1079,7 @@
   <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1098,7 +1098,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">

--- a/data/Airports.xlsx
+++ b/data/Airports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krzysiek\Documents\GitHub\flight_db\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E8364D-D9E0-4339-B328-53316B7E5111}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F346D9-CC87-40B2-85A7-8869A21E63EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2D641D20-2ABD-40C9-9F29-9BF9A7988FB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="331">
   <si>
     <t>AirportId</t>
   </si>
@@ -712,6 +712,321 @@
   </si>
   <si>
     <t>Aeroporto Internazionale di Roma Ciampino G. B. Pastine</t>
+  </si>
+  <si>
+    <t>Madeira</t>
+  </si>
+  <si>
+    <t>Gran Canaria</t>
+  </si>
+  <si>
+    <t>Corfu</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Montreal</t>
+  </si>
+  <si>
+    <t>Quebec</t>
+  </si>
+  <si>
+    <t>Toronto</t>
+  </si>
+  <si>
+    <t>Ottawa</t>
+  </si>
+  <si>
+    <t>Winnipeg</t>
+  </si>
+  <si>
+    <t>Calgary</t>
+  </si>
+  <si>
+    <t>Vancouver</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Seattle</t>
+  </si>
+  <si>
+    <t>Portland</t>
+  </si>
+  <si>
+    <t>Sacramento</t>
+  </si>
+  <si>
+    <t>San Francisco</t>
+  </si>
+  <si>
+    <t>San Diego</t>
+  </si>
+  <si>
+    <t>Las Vegas</t>
+  </si>
+  <si>
+    <t>Phoenix</t>
+  </si>
+  <si>
+    <t>Tuscon</t>
+  </si>
+  <si>
+    <t>San Antonio</t>
+  </si>
+  <si>
+    <t>Austin</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>Dallas</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>Orlando</t>
+  </si>
+  <si>
+    <t>Atlanta</t>
+  </si>
+  <si>
+    <t>Nashville</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>Kansas City</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>Detroit</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Boston</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Philadelphia</t>
+  </si>
+  <si>
+    <t>Minneapolis</t>
+  </si>
+  <si>
+    <t>Mexico City</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Montréal-Pierre Elliott Trudeau International Airport</t>
+  </si>
+  <si>
+    <t>YUL</t>
+  </si>
+  <si>
+    <t>YQB</t>
+  </si>
+  <si>
+    <t>Québec City Jean Lesage International Airport</t>
+  </si>
+  <si>
+    <t>Lester B. Pearson International Airport</t>
+  </si>
+  <si>
+    <t>YYZ</t>
+  </si>
+  <si>
+    <t>Ottawa/Macdonald–Cartier International Airport</t>
+  </si>
+  <si>
+    <t>YOW</t>
+  </si>
+  <si>
+    <t>YWG</t>
+  </si>
+  <si>
+    <t>Winnipeg James Armstrong Richardson International Airport</t>
+  </si>
+  <si>
+    <t>Calgary International Airport</t>
+  </si>
+  <si>
+    <t>YYC</t>
+  </si>
+  <si>
+    <t>Vancouver International Airport</t>
+  </si>
+  <si>
+    <t>YVR</t>
+  </si>
+  <si>
+    <t>SEA</t>
+  </si>
+  <si>
+    <t>PDX</t>
+  </si>
+  <si>
+    <t>Portland International Airport</t>
+  </si>
+  <si>
+    <t>Sacramento International Airport</t>
+  </si>
+  <si>
+    <t>SMF</t>
+  </si>
+  <si>
+    <t>SFO</t>
+  </si>
+  <si>
+    <t>SAN</t>
+  </si>
+  <si>
+    <t>San Francisco International Airport</t>
+  </si>
+  <si>
+    <t>Los Angeles International Airport</t>
+  </si>
+  <si>
+    <t>San Diego International Airport</t>
+  </si>
+  <si>
+    <t>Las Vegas International Airport</t>
+  </si>
+  <si>
+    <t>Tuscon International Airport</t>
+  </si>
+  <si>
+    <t>Austin International Airport</t>
+  </si>
+  <si>
+    <t>San Antonio International Airport</t>
+  </si>
+  <si>
+    <t>Miami International Airport</t>
+  </si>
+  <si>
+    <t>Orlando International Airport</t>
+  </si>
+  <si>
+    <t>Nashville International Airport</t>
+  </si>
+  <si>
+    <t>Kansas City International Airport</t>
+  </si>
+  <si>
+    <t>LAX</t>
+  </si>
+  <si>
+    <t>LAS</t>
+  </si>
+  <si>
+    <t>PHX</t>
+  </si>
+  <si>
+    <t>Phoenix Sky Harbor International Airport</t>
+  </si>
+  <si>
+    <t>TUS</t>
+  </si>
+  <si>
+    <t>AUS</t>
+  </si>
+  <si>
+    <t>MIA</t>
+  </si>
+  <si>
+    <t>ORL</t>
+  </si>
+  <si>
+    <t>ATL</t>
+  </si>
+  <si>
+    <t>CHI</t>
+  </si>
+  <si>
+    <t>BOS</t>
+  </si>
+  <si>
+    <t>MEX</t>
+  </si>
+  <si>
+    <t>Philadelphia International Airport</t>
+  </si>
+  <si>
+    <t>George Bush Intercontinental Airport</t>
+  </si>
+  <si>
+    <t>IAH</t>
+  </si>
+  <si>
+    <t>SAT</t>
+  </si>
+  <si>
+    <t>Dallas/Fort Worth International Airport</t>
+  </si>
+  <si>
+    <t>DFW</t>
+  </si>
+  <si>
+    <t>Hartsfield–Jackson Atlanta International Airport</t>
+  </si>
+  <si>
+    <t>BNA</t>
+  </si>
+  <si>
+    <t>MCI</t>
+  </si>
+  <si>
+    <t>O'Hare International Airport</t>
+  </si>
+  <si>
+    <t>DTW</t>
+  </si>
+  <si>
+    <t>Detroit Metropolitan Wayne County Airport</t>
+  </si>
+  <si>
+    <t>JFK</t>
+  </si>
+  <si>
+    <t>John F. Kennedy International Airport</t>
+  </si>
+  <si>
+    <t>General Edward Lawrence Logan International Airport</t>
+  </si>
+  <si>
+    <t>DCA</t>
+  </si>
+  <si>
+    <t>PHL</t>
+  </si>
+  <si>
+    <t>MSP</t>
+  </si>
+  <si>
+    <t>Minneapolis–Saint Paul International Airport</t>
+  </si>
+  <si>
+    <t>Washington Dulles International Airport</t>
+  </si>
+  <si>
+    <t>Aeropuerto Internacional Benito Juárez</t>
+  </si>
+  <si>
+    <t>Seattle–Tacoma International Airport</t>
   </si>
 </sst>
 </file>
@@ -1076,10 +1391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD80715E-5489-4D96-ABF9-FD4C8D3849C6}">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1189,6 +1504,9 @@
       <c r="D6" t="s">
         <v>7</v>
       </c>
+      <c r="E6" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1271,6 +1589,9 @@
       <c r="D11" t="s">
         <v>21</v>
       </c>
+      <c r="E11" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1574,6 +1895,9 @@
       <c r="D29" t="s">
         <v>93</v>
       </c>
+      <c r="E29" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -2253,6 +2577,567 @@
       </c>
       <c r="E69" t="s">
         <v>192</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>266</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D70" t="s">
+        <v>229</v>
+      </c>
+      <c r="E70" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>267</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D71" t="s">
+        <v>229</v>
+      </c>
+      <c r="E71" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>270</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D72" t="s">
+        <v>229</v>
+      </c>
+      <c r="E72" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>272</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D73" t="s">
+        <v>229</v>
+      </c>
+      <c r="E73" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>273</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D74" t="s">
+        <v>229</v>
+      </c>
+      <c r="E74" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>276</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D75" t="s">
+        <v>229</v>
+      </c>
+      <c r="E75" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>278</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D76" t="s">
+        <v>229</v>
+      </c>
+      <c r="E76" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>279</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D77" t="s">
+        <v>237</v>
+      </c>
+      <c r="E77" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>280</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D78" t="s">
+        <v>237</v>
+      </c>
+      <c r="E78" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>283</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D79" t="s">
+        <v>237</v>
+      </c>
+      <c r="E79" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>284</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D80" t="s">
+        <v>237</v>
+      </c>
+      <c r="E80" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>297</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D81" t="s">
+        <v>237</v>
+      </c>
+      <c r="E81" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>285</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D82" t="s">
+        <v>237</v>
+      </c>
+      <c r="E82" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>298</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D83" t="s">
+        <v>237</v>
+      </c>
+      <c r="E83" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>299</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D84" t="s">
+        <v>237</v>
+      </c>
+      <c r="E84" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>301</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D85" t="s">
+        <v>237</v>
+      </c>
+      <c r="E85" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>302</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D86" t="s">
+        <v>237</v>
+      </c>
+      <c r="E86" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>311</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D87" t="s">
+        <v>237</v>
+      </c>
+      <c r="E87" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>312</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D88" t="s">
+        <v>237</v>
+      </c>
+      <c r="E88" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>314</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D89" t="s">
+        <v>237</v>
+      </c>
+      <c r="E89" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>303</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D90" t="s">
+        <v>237</v>
+      </c>
+      <c r="E90" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>304</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D91" t="s">
+        <v>237</v>
+      </c>
+      <c r="E91" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>305</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D92" t="s">
+        <v>237</v>
+      </c>
+      <c r="E92" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>316</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D93" t="s">
+        <v>237</v>
+      </c>
+      <c r="E93" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>317</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D94" t="s">
+        <v>237</v>
+      </c>
+      <c r="E94" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>306</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D95" t="s">
+        <v>237</v>
+      </c>
+      <c r="E95" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>319</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D96" t="s">
+        <v>237</v>
+      </c>
+      <c r="E96" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>321</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="D97" t="s">
+        <v>237</v>
+      </c>
+      <c r="E97" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>307</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D98" t="s">
+        <v>237</v>
+      </c>
+      <c r="E98" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>324</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D99" t="s">
+        <v>237</v>
+      </c>
+      <c r="E99" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>325</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D100" t="s">
+        <v>237</v>
+      </c>
+      <c r="E100" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>326</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D101" t="s">
+        <v>237</v>
+      </c>
+      <c r="E101" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>308</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D102" t="s">
+        <v>264</v>
+      </c>
+      <c r="E102" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/data/Airports.xlsx
+++ b/data/Airports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krzysiek\Documents\GitHub\flight_db\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F346D9-CC87-40B2-85A7-8869A21E63EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840D5EB8-280A-4618-8834-4A277DFFDE4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2D641D20-2ABD-40C9-9F29-9BF9A7988FB8}"/>
   </bookViews>
@@ -36,21 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="331">
   <si>
-    <t>AirportId</t>
-  </si>
-  <si>
-    <t>AirportCode</t>
-  </si>
-  <si>
-    <t>FullName</t>
-  </si>
-  <si>
-    <t>OriginCountry</t>
-  </si>
-  <si>
-    <t>OriginCity</t>
-  </si>
-  <si>
     <t>PDL</t>
   </si>
   <si>
@@ -156,9 +141,6 @@
     <t>Marseille</t>
   </si>
   <si>
-    <t>Lyon-Saint Exupéry Airport</t>
-  </si>
-  <si>
     <t>Lyon</t>
   </si>
   <si>
@@ -192,15 +174,9 @@
     <t>Palermo</t>
   </si>
   <si>
-    <t>Aeroporto di Catania-Fontanarossa</t>
-  </si>
-  <si>
     <t>Catania</t>
   </si>
   <si>
-    <t>Aeroporto Internazionale di Bari-Karol Wojtyla</t>
-  </si>
-  <si>
     <t>Bari</t>
   </si>
   <si>
@@ -429,9 +405,6 @@
     <t>Dusseldorf</t>
   </si>
   <si>
-    <t>Flughafen Berlin-Tegel</t>
-  </si>
-  <si>
     <t>Berlin</t>
   </si>
   <si>
@@ -501,9 +474,6 @@
     <t>Bergen</t>
   </si>
   <si>
-    <t>Helsinki-Vantaan lentoasema</t>
-  </si>
-  <si>
     <t>Finland</t>
   </si>
   <si>
@@ -831,9 +801,6 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Montréal-Pierre Elliott Trudeau International Airport</t>
-  </si>
-  <si>
     <t>YUL</t>
   </si>
   <si>
@@ -849,9 +816,6 @@
     <t>YYZ</t>
   </si>
   <si>
-    <t>Ottawa/Macdonald–Cartier International Airport</t>
-  </si>
-  <si>
     <t>YOW</t>
   </si>
   <si>
@@ -981,18 +945,12 @@
     <t>DFW</t>
   </si>
   <si>
-    <t>Hartsfield–Jackson Atlanta International Airport</t>
-  </si>
-  <si>
     <t>BNA</t>
   </si>
   <si>
     <t>MCI</t>
   </si>
   <si>
-    <t>O'Hare International Airport</t>
-  </si>
-  <si>
     <t>DTW</t>
   </si>
   <si>
@@ -1017,16 +975,58 @@
     <t>MSP</t>
   </si>
   <si>
-    <t>Minneapolis–Saint Paul International Airport</t>
-  </si>
-  <si>
     <t>Washington Dulles International Airport</t>
   </si>
   <si>
     <t>Aeropuerto Internacional Benito Juárez</t>
   </si>
   <si>
-    <t>Seattle–Tacoma International Airport</t>
+    <t>airport_id</t>
+  </si>
+  <si>
+    <t>airport_code</t>
+  </si>
+  <si>
+    <t>full_name</t>
+  </si>
+  <si>
+    <t>origin_country</t>
+  </si>
+  <si>
+    <t>origin_city</t>
+  </si>
+  <si>
+    <t>Aeroporto Internazionale di Bari: Karol Wojtyla</t>
+  </si>
+  <si>
+    <t>Lyon Saint Exupéry Airport</t>
+  </si>
+  <si>
+    <t>Aeroporto di Catania Fontanarossa</t>
+  </si>
+  <si>
+    <t>Flughafen Berlin Tegel</t>
+  </si>
+  <si>
+    <t>Helsinki Vantaan lentoasema</t>
+  </si>
+  <si>
+    <t>Montréal Pierre Elliott Trudeau International Airport</t>
+  </si>
+  <si>
+    <t>Macdonald Cartier International Airport</t>
+  </si>
+  <si>
+    <t>Seattle Tacoma International Airport</t>
+  </si>
+  <si>
+    <t>Hartsfield Jackson Atlanta International Airport</t>
+  </si>
+  <si>
+    <t>OHare International Airport</t>
+  </si>
+  <si>
+    <t>Minneapolis Saint Paul International Airport</t>
   </si>
 </sst>
 </file>
@@ -1393,8 +1393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD80715E-5489-4D96-ABF9-FD4C8D3849C6}">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1408,19 +1408,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>316</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>317</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>318</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1428,16 +1428,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1445,16 +1445,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1462,16 +1462,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1479,16 +1479,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1496,16 +1496,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1513,16 +1513,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1530,16 +1530,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1547,16 +1547,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1564,16 +1564,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1581,16 +1581,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1598,16 +1598,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1615,16 +1615,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1632,16 +1632,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>40</v>
+        <v>321</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1649,16 +1649,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
         <v>37</v>
-      </c>
-      <c r="E15" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1666,16 +1666,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1683,16 +1683,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>52</v>
+        <v>322</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1700,16 +1700,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>54</v>
+        <v>320</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1717,16 +1717,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D19" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1734,16 +1734,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" t="s">
         <v>50</v>
-      </c>
-      <c r="E20" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1751,16 +1751,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E21" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1768,16 +1768,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1785,16 +1785,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E23" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1802,16 +1802,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D24" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E24" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1819,16 +1819,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E25" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1836,16 +1836,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D26" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E26" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1853,16 +1853,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D27" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E27" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1870,16 +1870,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D28" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E28" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1887,16 +1887,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D29" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E29" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1904,16 +1904,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D30" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E30" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1921,16 +1921,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D31" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E31" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1938,16 +1938,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D32" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E32" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1955,16 +1955,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="D33" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E33" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1972,16 +1972,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D34" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E34" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1989,16 +1989,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D35" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E35" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -2006,16 +2006,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E36" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -2023,16 +2023,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D37" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E37" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -2040,16 +2040,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D38" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E38" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -2057,16 +2057,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D39" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E39" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -2074,16 +2074,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D40" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E40" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2091,16 +2091,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D41" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E41" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -2108,16 +2108,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D42" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E42" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -2125,16 +2125,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>131</v>
+        <v>323</v>
       </c>
       <c r="D43" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E43" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -2142,16 +2142,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="D44" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E44" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -2159,16 +2159,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D45" t="s">
+        <v>119</v>
+      </c>
+      <c r="E45" t="s">
         <v>127</v>
-      </c>
-      <c r="E45" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -2176,16 +2176,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D46" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E46" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -2193,16 +2193,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D47" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E47" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -2210,16 +2210,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D48" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E48" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -2227,16 +2227,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D49" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E49" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2244,16 +2244,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D50" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E50" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2261,16 +2261,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D51" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="E51" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2278,16 +2278,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D52" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="E52" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -2295,16 +2295,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>155</v>
+        <v>324</v>
       </c>
       <c r="D53" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="E53" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2312,16 +2312,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D54" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E54" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2329,16 +2329,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D55" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="E55" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -2346,16 +2346,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="D56" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="E56" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2363,16 +2363,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D57" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="E57" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -2380,16 +2380,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="D58" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="E58" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2397,16 +2397,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D59" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E59" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2414,16 +2414,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D60" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E60" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2431,16 +2431,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="D61" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E61" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2448,16 +2448,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="D62" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E62" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2465,16 +2465,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D63" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E63" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2482,16 +2482,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D64" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E64" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2499,16 +2499,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D65" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E65" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2516,16 +2516,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D66" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E66" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2533,16 +2533,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="D67" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E67" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2550,16 +2550,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="D68" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E68" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2567,16 +2567,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="D69" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="E69" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2584,16 +2584,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>265</v>
+        <v>325</v>
       </c>
       <c r="D70" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="E70" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2601,16 +2601,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D71" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="E71" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2618,16 +2618,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="D72" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="E72" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2635,16 +2635,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>271</v>
+        <v>326</v>
       </c>
       <c r="D73" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="E73" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2652,16 +2652,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="D74" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="E74" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -2669,16 +2669,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="D75" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="E75" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2686,16 +2686,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D76" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="E76" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -2703,16 +2703,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D77" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="E77" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -2720,16 +2720,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="D78" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="E78" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -2737,16 +2737,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="D79" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="E79" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -2754,16 +2754,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="D80" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="E80" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -2771,16 +2771,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="D81" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="E81" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -2788,16 +2788,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="D82" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="E82" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -2805,16 +2805,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="D83" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="E83" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -2822,16 +2822,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="D84" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="E84" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2839,16 +2839,16 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="D85" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="E85" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2856,16 +2856,16 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="D86" t="s">
+        <v>227</v>
+      </c>
+      <c r="E86" t="s">
         <v>237</v>
-      </c>
-      <c r="E86" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2873,16 +2873,16 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="D87" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="E87" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2890,16 +2890,16 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="D88" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="E88" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2907,16 +2907,16 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D89" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="E89" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -2924,16 +2924,16 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="D90" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="E90" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -2941,16 +2941,16 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="D91" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="E91" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2958,16 +2958,16 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="D92" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="E92" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2975,16 +2975,16 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="D93" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="E93" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2992,16 +2992,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="D94" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="E94" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -3009,16 +3009,16 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="D95" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="E95" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -3026,16 +3026,16 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="D96" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="E96" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -3043,16 +3043,16 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="D97" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="E97" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -3060,16 +3060,16 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="D98" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="E98" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -3077,16 +3077,16 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="D99" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="E99" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -3094,16 +3094,16 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="D100" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="E100" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -3111,16 +3111,16 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D101" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="E101" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -3128,16 +3128,16 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="D102" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="E102" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/data/Airports.xlsx
+++ b/data/Airports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krzysiek\Documents\GitHub\flight_db\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840D5EB8-280A-4618-8834-4A277DFFDE4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3F373F-A2AA-488A-BC22-7E593D8389D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2D641D20-2ABD-40C9-9F29-9BF9A7988FB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="334">
   <si>
     <t>PDL</t>
   </si>
@@ -1027,6 +1027,15 @@
   </si>
   <si>
     <t>Minneapolis Saint Paul International Airport</t>
+  </si>
+  <si>
+    <t>geographic_location</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>North America</t>
   </si>
 </sst>
 </file>
@@ -1391,10 +1400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD80715E-5489-4D96-ABF9-FD4C8D3849C6}">
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1406,7 +1415,7 @@
     <col min="5" max="5" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>315</v>
       </c>
@@ -1422,8 +1431,13 @@
       <c r="E1" s="1" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1439,8 +1453,11 @@
       <c r="E2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1456,8 +1473,11 @@
       <c r="E3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1473,8 +1493,11 @@
       <c r="E4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1490,8 +1513,11 @@
       <c r="E5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1507,8 +1533,11 @@
       <c r="E6" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1524,8 +1553,11 @@
       <c r="E7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1541,8 +1573,11 @@
       <c r="E8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1558,8 +1593,11 @@
       <c r="E9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1575,8 +1613,11 @@
       <c r="E10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1592,8 +1633,11 @@
       <c r="E11" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1609,8 +1653,11 @@
       <c r="E12" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1626,8 +1673,11 @@
       <c r="E13" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1643,8 +1693,11 @@
       <c r="E14" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1660,8 +1713,11 @@
       <c r="E15" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1677,8 +1733,11 @@
       <c r="E16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1694,8 +1753,11 @@
       <c r="E17" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1711,8 +1773,11 @@
       <c r="E18" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1728,8 +1793,11 @@
       <c r="E19" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1745,8 +1813,11 @@
       <c r="E20" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1762,8 +1833,11 @@
       <c r="E21" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1779,8 +1853,11 @@
       <c r="E22" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1796,8 +1873,11 @@
       <c r="E23" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1813,8 +1893,11 @@
       <c r="E24" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1830,8 +1913,11 @@
       <c r="E25" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1847,8 +1933,11 @@
       <c r="E26" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1864,8 +1953,11 @@
       <c r="E27" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1881,8 +1973,11 @@
       <c r="E28" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1898,8 +1993,11 @@
       <c r="E29" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1915,8 +2013,11 @@
       <c r="E30" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1932,8 +2033,11 @@
       <c r="E31" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1949,8 +2053,11 @@
       <c r="E32" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1966,8 +2073,11 @@
       <c r="E33" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1983,8 +2093,11 @@
       <c r="E34" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2000,8 +2113,11 @@
       <c r="E35" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2017,8 +2133,11 @@
       <c r="E36" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2034,8 +2153,11 @@
       <c r="E37" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2051,8 +2173,11 @@
       <c r="E38" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2068,8 +2193,11 @@
       <c r="E39" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2085,8 +2213,11 @@
       <c r="E40" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2102,8 +2233,11 @@
       <c r="E41" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2119,8 +2253,11 @@
       <c r="E42" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2136,8 +2273,11 @@
       <c r="E43" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2153,8 +2293,11 @@
       <c r="E44" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2170,8 +2313,11 @@
       <c r="E45" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2187,8 +2333,11 @@
       <c r="E46" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2204,8 +2353,11 @@
       <c r="E47" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2221,8 +2373,11 @@
       <c r="E48" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2238,8 +2393,11 @@
       <c r="E49" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2255,8 +2413,11 @@
       <c r="E50" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2272,8 +2433,11 @@
       <c r="E51" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2289,8 +2453,11 @@
       <c r="E52" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2306,8 +2473,11 @@
       <c r="E53" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2323,8 +2493,11 @@
       <c r="E54" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2340,8 +2513,11 @@
       <c r="E55" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2357,8 +2533,11 @@
       <c r="E56" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2374,8 +2553,11 @@
       <c r="E57" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2391,8 +2573,11 @@
       <c r="E58" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2408,8 +2593,11 @@
       <c r="E59" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2425,8 +2613,11 @@
       <c r="E60" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2442,8 +2633,11 @@
       <c r="E61" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2459,8 +2653,11 @@
       <c r="E62" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2476,8 +2673,11 @@
       <c r="E63" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2493,8 +2693,11 @@
       <c r="E64" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2510,8 +2713,11 @@
       <c r="E65" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2527,8 +2733,11 @@
       <c r="E66" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2544,8 +2753,11 @@
       <c r="E67" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2561,8 +2773,11 @@
       <c r="E68" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2578,8 +2793,11 @@
       <c r="E69" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2595,8 +2813,11 @@
       <c r="E70" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2612,8 +2833,11 @@
       <c r="E71" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2629,8 +2853,11 @@
       <c r="E72" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2646,8 +2873,11 @@
       <c r="E73" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2663,8 +2893,11 @@
       <c r="E74" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2680,8 +2913,11 @@
       <c r="E75" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2697,8 +2933,11 @@
       <c r="E76" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2714,8 +2953,11 @@
       <c r="E77" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2731,8 +2973,11 @@
       <c r="E78" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2748,8 +2993,11 @@
       <c r="E79" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2765,8 +3013,11 @@
       <c r="E80" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2782,8 +3033,11 @@
       <c r="E81" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F81" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2799,8 +3053,11 @@
       <c r="E82" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F82" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2816,8 +3073,11 @@
       <c r="E83" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F83" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2833,8 +3093,11 @@
       <c r="E84" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F84" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2850,8 +3113,11 @@
       <c r="E85" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F85" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2867,8 +3133,11 @@
       <c r="E86" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F86" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2884,8 +3153,11 @@
       <c r="E87" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F87" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2901,8 +3173,11 @@
       <c r="E88" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F88" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2918,8 +3193,11 @@
       <c r="E89" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F89" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2935,8 +3213,11 @@
       <c r="E90" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F90" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2952,8 +3233,11 @@
       <c r="E91" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F91" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2969,8 +3253,11 @@
       <c r="E92" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F92" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2986,8 +3273,11 @@
       <c r="E93" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F93" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3003,8 +3293,11 @@
       <c r="E94" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F94" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3020,8 +3313,11 @@
       <c r="E95" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F95" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3037,8 +3333,11 @@
       <c r="E96" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F96" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3054,8 +3353,11 @@
       <c r="E97" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F97" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3071,8 +3373,11 @@
       <c r="E98" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F98" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3088,8 +3393,11 @@
       <c r="E99" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F99" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3105,8 +3413,11 @@
       <c r="E100" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F100" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3122,8 +3433,11 @@
       <c r="E101" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F101" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3138,6 +3452,9 @@
       </c>
       <c r="E102" t="s">
         <v>253</v>
+      </c>
+      <c r="F102" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>
